--- a/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
@@ -59,19 +59,19 @@
     <t>SDSC223423</t>
   </si>
   <si>
-    <t>17-07-2024</t>
-  </si>
-  <si>
-    <t>17-07-2025</t>
-  </si>
-  <si>
-    <t>IN-WARRANTY</t>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>IN/WARRANTY</t>
   </si>
   <si>
     <t>SDSC223424</t>
   </si>
   <si>
-    <t>OUT-WARRANTY</t>
+    <t>OUT/WARRANTY</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Analytics-Valley\Task\CLN\31-07-2024\Patch 2_31072024\FormatFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Analytics-Valley\Task\CLN\31-07-2024\Patch 6_31072024\FormatFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D35568-D036-465C-8039-6E35226477B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC25935-3464-43CD-85CE-DB1840AE31E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>PartCode</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>In Warranty</t>
+  </si>
+  <si>
+    <t>WarrantyType</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Full</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -440,9 +449,10 @@
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -464,8 +474,11 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -487,8 +500,11 @@
       <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -510,68 +526,71 @@
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>

--- a/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Analytics-Valley\Task\CLN\31-07-2024\Patch 6_31072024\FormatFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sujay-Git\CLN_API\Presentation\Casa.API\FormatFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC25935-3464-43CD-85CE-DB1840AE31E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA9BED-0B85-4701-8922-76855710D7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>PartCode</t>
   </si>
@@ -43,12 +43,6 @@
     <t>SDSC223423</t>
   </si>
   <si>
-    <t>17/07/2024</t>
-  </si>
-  <si>
-    <t>17/07/2025</t>
-  </si>
-  <si>
     <t>SDSC223424</t>
   </si>
   <si>
@@ -77,21 +71,32 @@
   </si>
   <si>
     <t>Full</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -153,10 +158,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -445,16 +459,16 @@
     <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17" style="9" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -475,165 +489,155 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sujay-Git\CLN_API\Presentation\Casa.API\FormatFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA9BED-0B85-4701-8922-76855710D7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>PartCode</t>
   </si>
@@ -74,12 +68,39 @@
   </si>
   <si>
     <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>IsTrackingDeviceRequired</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>IMEINo</t>
+  </si>
+  <si>
+    <t>SIMNo</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>TrackingDeviceName</t>
+  </si>
+  <si>
+    <t>MakeName</t>
+  </si>
+  <si>
+    <t>SIMProviderName</t>
+  </si>
+  <si>
+    <t>PlatformName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -447,26 +468,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17" style="9" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -477,22 +506,49 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="Q1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -502,23 +558,29 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -528,118 +590,129 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="12:14">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="12:14">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="12:14">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="12:14">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="12:14">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="12:14">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 Q1:Q1048576">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>PartCode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>ProductSerialNumber</t>
   </si>
@@ -95,6 +92,36 @@
   </si>
   <si>
     <t>PlatformName</t>
+  </si>
+  <si>
+    <t>BOM#</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>MAKE1</t>
+  </si>
+  <si>
+    <t>SIM PLATFORM1</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PLATFORM2</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>MAKE2</t>
+  </si>
+  <si>
+    <t>SIM PLATFORM2</t>
+  </si>
+  <si>
+    <t>AIRTEL</t>
   </si>
 </sst>
 </file>
@@ -105,19 +132,12 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -179,19 +199,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -488,228 +512,270 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18" style="9" customWidth="1"/>
-    <col min="14" max="14" width="17" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17" style="7" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>12</v>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>736727</v>
+      </c>
+      <c r="I2">
+        <v>67</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
+      <c r="A3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>13</v>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>788736</v>
+      </c>
+      <c r="I3">
+        <v>87</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="12:14">
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="12:14">
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="12:14">
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="12:14">
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="12:14">
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="12:14">
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576 D1:D1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
+++ b/Presentation/Casa.API/FormatFiles/Template_QCProductSerialNumber.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>ProductSerialNumber</t>
   </si>
@@ -110,18 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve"> PLATFORM2</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>MAKE2</t>
-  </si>
-  <si>
-    <t>SIM PLATFORM2</t>
-  </si>
-  <si>
-    <t>AIRTEL</t>
   </si>
 </sst>
 </file>
@@ -496,7 +484,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -583,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -638,27 +626,9 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>788736</v>
-      </c>
-      <c r="I3">
-        <v>87</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="G3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
         <v>16</v>
       </c>
